--- a/dataset.xlsx
+++ b/dataset.xlsx
@@ -532,7 +532,7 @@
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>[&lt;dataset_parsing.Comment object at 0x000002C5C6106050&gt;, &lt;dataset_parsing.Comment object at 0x000002C5C6106150&gt;]</t>
+          <t>[&lt;dataset_parsing.Comment object at 0x000001FE1ACD1F90&gt;, &lt;dataset_parsing.Comment object at 0x000001FE1ACD1FD0&gt;]</t>
         </is>
       </c>
     </row>
@@ -578,7 +578,7 @@
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>[&lt;dataset_parsing.Comment object at 0x000002C5C61056D0&gt;, &lt;dataset_parsing.Comment object at 0x000002C5C6105FD0&gt;]</t>
+          <t>[&lt;dataset_parsing.Comment object at 0x000001FE1ACD1D90&gt;, &lt;dataset_parsing.Comment object at 0x000001FE1ACD1F10&gt;]</t>
         </is>
       </c>
     </row>
@@ -624,7 +624,7 @@
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>[&lt;dataset_parsing.Comment object at 0x000002C5C6105E10&gt;, &lt;dataset_parsing.Comment object at 0x000002C5C6107750&gt;]</t>
+          <t>[&lt;dataset_parsing.Comment object at 0x000001FE1ACD2F10&gt;, &lt;dataset_parsing.Comment object at 0x000001FE1ACD1E10&gt;]</t>
         </is>
       </c>
     </row>
@@ -670,7 +670,7 @@
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>[&lt;dataset_parsing.Comment object at 0x000002C5C6106490&gt;, &lt;dataset_parsing.Comment object at 0x000002C5C6105C50&gt;]</t>
+          <t>[&lt;dataset_parsing.Comment object at 0x000001FE1ACD1A10&gt;, &lt;dataset_parsing.Comment object at 0x000001FE1ACD1B90&gt;]</t>
         </is>
       </c>
     </row>
@@ -716,7 +716,7 @@
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>[&lt;dataset_parsing.Comment object at 0x000002C5C6105890&gt;, &lt;dataset_parsing.Comment object at 0x000002C5C6105A50&gt;]</t>
+          <t>[&lt;dataset_parsing.Comment object at 0x000001FE1ACD18D0&gt;, &lt;dataset_parsing.Comment object at 0x000001FE1ACD19D0&gt;]</t>
         </is>
       </c>
     </row>
@@ -762,7 +762,7 @@
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>[&lt;dataset_parsing.Comment object at 0x000002C5C6105710&gt;, &lt;dataset_parsing.Comment object at 0x000002C5C6105790&gt;]</t>
+          <t>[&lt;dataset_parsing.Comment object at 0x000001FE1ACD1690&gt;, &lt;dataset_parsing.Comment object at 0x000001FE1ACD1850&gt;]</t>
         </is>
       </c>
     </row>
@@ -808,7 +808,7 @@
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>[&lt;dataset_parsing.Comment object at 0x000002C5C6104E10&gt;, &lt;dataset_parsing.Comment object at 0x000002C5C6105650&gt;]</t>
+          <t>[&lt;dataset_parsing.Comment object at 0x000001FE1ACD1650&gt;, &lt;dataset_parsing.Comment object at 0x000001FE1ACD2F50&gt;]</t>
         </is>
       </c>
     </row>
@@ -839,7 +839,7 @@
         </is>
       </c>
       <c r="F9" t="n">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="G9" t="inlineStr">
         <is>
@@ -854,7 +854,7 @@
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>[&lt;dataset_parsing.Comment object at 0x000002C5C6105490&gt;, &lt;dataset_parsing.Comment object at 0x000002C5C6105690&gt;]</t>
+          <t>[&lt;dataset_parsing.Comment object at 0x000001FE1ACD1C10&gt;, &lt;dataset_parsing.Comment object at 0x000001FE1ACD13D0&gt;]</t>
         </is>
       </c>
     </row>
@@ -900,7 +900,7 @@
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>[&lt;dataset_parsing.Comment object at 0x000002C5C61054D0&gt;, &lt;dataset_parsing.Comment object at 0x000002C5C6105390&gt;]</t>
+          <t>[&lt;dataset_parsing.Comment object at 0x000001FE1ACD1110&gt;, &lt;dataset_parsing.Comment object at 0x000001FE1ACD1190&gt;]</t>
         </is>
       </c>
     </row>
@@ -946,7 +946,7 @@
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>[&lt;dataset_parsing.Comment object at 0x000002C5C6105190&gt;, &lt;dataset_parsing.Comment object at 0x000002C5C6106610&gt;]</t>
+          <t>[&lt;dataset_parsing.Comment object at 0x000001FE1ACD0F90&gt;, &lt;dataset_parsing.Comment object at 0x000001FE1ACD1010&gt;]</t>
         </is>
       </c>
     </row>
@@ -992,7 +992,7 @@
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>[&lt;dataset_parsing.Comment object at 0x000002C5C6104ED0&gt;, &lt;dataset_parsing.Comment object at 0x000002C5C6104FD0&gt;]</t>
+          <t>[&lt;dataset_parsing.Comment object at 0x000001FE1ACD0DD0&gt;, &lt;dataset_parsing.Comment object at 0x000001FE1ACD0E50&gt;]</t>
         </is>
       </c>
     </row>
@@ -1038,7 +1038,7 @@
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>[&lt;dataset_parsing.Comment object at 0x000002C5C6104D90&gt;, &lt;dataset_parsing.Comment object at 0x000002C5C6104E50&gt;]</t>
+          <t>[&lt;dataset_parsing.Comment object at 0x000001FE1ACD0B50&gt;, &lt;dataset_parsing.Comment object at 0x000001FE1ACD0D50&gt;]</t>
         </is>
       </c>
     </row>
@@ -1084,7 +1084,7 @@
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>[&lt;dataset_parsing.Comment object at 0x000002C5C6104790&gt;, &lt;dataset_parsing.Comment object at 0x000002C5C6104C90&gt;]</t>
+          <t>[&lt;dataset_parsing.Comment object at 0x000001FE1ACD0850&gt;, &lt;dataset_parsing.Comment object at 0x000001FE1ACD0C50&gt;]</t>
         </is>
       </c>
     </row>
@@ -1130,7 +1130,7 @@
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>[&lt;dataset_parsing.Comment object at 0x000002C5C6104A50&gt;, &lt;dataset_parsing.Comment object at 0x000002C5C6104B10&gt;]</t>
+          <t>[&lt;dataset_parsing.Comment object at 0x000001FE1ACD2550&gt;, &lt;dataset_parsing.Comment object at 0x000001FE1ACD0450&gt;]</t>
         </is>
       </c>
     </row>
@@ -1176,7 +1176,7 @@
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>[&lt;dataset_parsing.Comment object at 0x000002C5C6104890&gt;, &lt;dataset_parsing.Comment object at 0x000002C5C6104A90&gt;]</t>
+          <t>[&lt;dataset_parsing.Comment object at 0x000001FE1ACD00D0&gt;, &lt;dataset_parsing.Comment object at 0x000001FE1ACD0150&gt;]</t>
         </is>
       </c>
     </row>
@@ -1222,7 +1222,7 @@
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>[&lt;dataset_parsing.Comment object at 0x000002C5C615D590&gt;, &lt;dataset_parsing.Comment object at 0x000002C5C615C590&gt;]</t>
+          <t>[&lt;dataset_parsing.Comment object at 0x000001FE1AD24190&gt;, &lt;dataset_parsing.Comment object at 0x000001FE1AD2E310&gt;]</t>
         </is>
       </c>
     </row>
@@ -1268,7 +1268,7 @@
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>[&lt;dataset_parsing.Comment object at 0x000002C5C615D6D0&gt;, &lt;dataset_parsing.Comment object at 0x000002C5C615DBD0&gt;]</t>
+          <t>[&lt;dataset_parsing.Comment object at 0x000001FE1AD2CF10&gt;, &lt;dataset_parsing.Comment object at 0x000001FE1AD2C890&gt;]</t>
         </is>
       </c>
     </row>
@@ -1314,7 +1314,7 @@
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>[&lt;dataset_parsing.Comment object at 0x000002C5C615E3D0&gt;, &lt;dataset_parsing.Comment object at 0x000002C5C615E8D0&gt;]</t>
+          <t>[&lt;dataset_parsing.Comment object at 0x000001FE1AD2CFD0&gt;, &lt;dataset_parsing.Comment object at 0x000001FE1AD2F810&gt;]</t>
         </is>
       </c>
     </row>
@@ -1360,7 +1360,7 @@
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>[&lt;dataset_parsing.Comment object at 0x000002C5C6178A10&gt;, &lt;dataset_parsing.Comment object at 0x000002C5C615C910&gt;]</t>
+          <t>[&lt;dataset_parsing.Comment object at 0x000001FE1AD48410&gt;, &lt;dataset_parsing.Comment object at 0x000001FE1AD2CCD0&gt;]</t>
         </is>
       </c>
     </row>
@@ -1406,7 +1406,7 @@
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>[&lt;dataset_parsing.Comment object at 0x000002C5C6153390&gt;, &lt;dataset_parsing.Comment object at 0x000002C5C6178D10&gt;]</t>
+          <t>[&lt;dataset_parsing.Comment object at 0x000001FE1A9D9050&gt;, &lt;dataset_parsing.Comment object at 0x000001FE1AD48390&gt;]</t>
         </is>
       </c>
     </row>
@@ -1452,7 +1452,7 @@
       </c>
       <c r="J22" t="inlineStr">
         <is>
-          <t>[&lt;dataset_parsing.Comment object at 0x000002C5C615E690&gt;, &lt;dataset_parsing.Comment object at 0x000002C5C6150950&gt;]</t>
+          <t>[&lt;dataset_parsing.Comment object at 0x000001FE1A9D8690&gt;, &lt;dataset_parsing.Comment object at 0x000001FE1AD25610&gt;]</t>
         </is>
       </c>
     </row>
@@ -1498,7 +1498,7 @@
       </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t>[&lt;dataset_parsing.Comment object at 0x000002C5C6153290&gt;, &lt;dataset_parsing.Comment object at 0x000002C5C6153710&gt;]</t>
+          <t>[&lt;dataset_parsing.Comment object at 0x000001FE1A9DA6D0&gt;, &lt;dataset_parsing.Comment object at 0x000001FE1A72DA90&gt;]</t>
         </is>
       </c>
     </row>
@@ -1529,7 +1529,7 @@
         </is>
       </c>
       <c r="F24" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G24" t="inlineStr">
         <is>
@@ -1544,7 +1544,7 @@
       </c>
       <c r="J24" t="inlineStr">
         <is>
-          <t>[&lt;dataset_parsing.Comment object at 0x000002C5C6153D50&gt;, &lt;dataset_parsing.Comment object at 0x000002C5C6151050&gt;]</t>
+          <t>[&lt;dataset_parsing.Comment object at 0x000001FE1A72DC50&gt;, &lt;dataset_parsing.Comment object at 0x000001FE1A72DB10&gt;]</t>
         </is>
       </c>
     </row>
@@ -1575,7 +1575,7 @@
         </is>
       </c>
       <c r="F25" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="G25" t="inlineStr">
         <is>
@@ -1590,7 +1590,7 @@
       </c>
       <c r="J25" t="inlineStr">
         <is>
-          <t>[&lt;dataset_parsing.Comment object at 0x000002C5C6150A90&gt;, &lt;dataset_parsing.Comment object at 0x000002C5C6153350&gt;]</t>
+          <t>[&lt;dataset_parsing.Comment object at 0x000001FE18FC35D0&gt;, &lt;dataset_parsing.Comment object at 0x000001FE1A72D910&gt;]</t>
         </is>
       </c>
     </row>
@@ -1621,7 +1621,7 @@
         </is>
       </c>
       <c r="F26" t="n">
-        <v>42</v>
+        <v>71</v>
       </c>
       <c r="G26" t="inlineStr">
         <is>
@@ -1636,7 +1636,7 @@
       </c>
       <c r="J26" t="inlineStr">
         <is>
-          <t>[&lt;dataset_parsing.Comment object at 0x000002C5C61510D0&gt;, &lt;dataset_parsing.Comment object at 0x000002C5C6153FD0&gt;]</t>
+          <t>[&lt;dataset_parsing.Comment object at 0x000001FE1A72FA90&gt;, &lt;dataset_parsing.Comment object at 0x000001FE1A9C67D0&gt;]</t>
         </is>
       </c>
     </row>
